--- a/dtpu_configurations/only_integer32/30mhz/mxu_10x10/power.xlsx
+++ b/dtpu_configurations/only_integer32/30mhz/mxu_10x10/power.xlsx
@@ -127,8 +127,8 @@
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
-    <col min="7" max="7" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
+    <col min="7" max="7" width="8.75" customWidth="true"/>
     <col min="8" max="8" width="10.3125" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
     <col min="10" max="10" width="11.25" customWidth="true"/>
@@ -175,22 +175,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.01407705806195736</v>
+        <v>0.03241051360964775</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.005813669878989458</v>
+        <v>0.0102643221616745</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.004318628925830126</v>
+        <v>0.006234307307749987</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0031784577295184135</v>
+        <v>0.003316320711746812</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>1.8883965822169557E-5</v>
+        <v>0.002328048925846815</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>8.419506484642625E-4</v>
+        <v>0.001021082396619022</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>5.878788651898503E-4</v>
@@ -199,10 +199,10 @@
         <v>1.2575732469558716</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12725776433944702</v>
+        <v>0.1274804174900055</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.413671612739563</v>
+        <v>1.4412201642990112</v>
       </c>
     </row>
   </sheetData>
